--- a/recommended.xlsx
+++ b/recommended.xlsx
@@ -37,25 +37,25 @@
     <t>Predictions</t>
   </si>
   <si>
-    <t>(어찌할바를 / 어찌할 바를) 몰랐다.</t>
-  </si>
-  <si>
-    <t>내겐 (너밖에 / 너 밖에) 없다</t>
-  </si>
-  <si>
-    <t>(12월초 / 12월 초)에 만나기로 했다</t>
-  </si>
-  <si>
-    <t>(우리가족 / 우리 가족)은 나를 포함해서 모두 다섯이다</t>
-  </si>
-  <si>
-    <t>모두 (나 몰라라 / 나몰라라) 했다.</t>
-  </si>
-  <si>
-    <t>추워서 입술이 (퍼래요 / 퍼레요)</t>
-  </si>
-  <si>
-    <t>나는 푹신한 (배개 / 배게)가 좋아</t>
+    <t>벽에 덕지덕치 (처 발랐다 / 처발랐다)</t>
+  </si>
+  <si>
+    <t>(세종조 / 세종 조)에 한글이 창제되었다</t>
+  </si>
+  <si>
+    <t>꽃을 (한아름 / 한 아름) 사왔다</t>
+  </si>
+  <si>
+    <t>질문에 대해 자세히 (답변드렸다 / 답변 드렸다)</t>
+  </si>
+  <si>
+    <t>이런 일은 (생전 처음 / 생전처음) 겪는 일이다</t>
+  </si>
+  <si>
+    <t>고향에 금방 (내려 가겠다 / 내려가겠다)</t>
+  </si>
+  <si>
+    <t>국의 (건더기 / 건데기)를 골라 먹었다</t>
   </si>
   <si>
     <t>하</t>
@@ -67,25 +67,25 @@
     <t>맞춤법</t>
   </si>
   <si>
-    <t>어찌할 바를</t>
-  </si>
-  <si>
-    <t>너밖에</t>
-  </si>
-  <si>
-    <t>12월 초</t>
-  </si>
-  <si>
-    <t>우리 가족</t>
-  </si>
-  <si>
-    <t>나 몰라라</t>
-  </si>
-  <si>
-    <t>퍼레요</t>
-  </si>
-  <si>
-    <t>베개</t>
+    <t>처발랐다</t>
+  </si>
+  <si>
+    <t>세종조</t>
+  </si>
+  <si>
+    <t>한 아름</t>
+  </si>
+  <si>
+    <t>답변드렸다</t>
+  </si>
+  <si>
+    <t>생전 처음</t>
+  </si>
+  <si>
+    <t>내려가겠다</t>
+  </si>
+  <si>
+    <t>건더기</t>
   </si>
 </sst>
 </file>
@@ -474,10 +474,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B2">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -492,15 +492,15 @@
         <v>17</v>
       </c>
       <c r="G2">
-        <v>0.7454759069397077</v>
+        <v>0.3647933250547525</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -515,15 +515,15 @@
         <v>18</v>
       </c>
       <c r="G3">
-        <v>0.7454759069397077</v>
+        <v>0.3647933250547525</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -538,15 +538,15 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>0.7454759069397077</v>
+        <v>0.3647933250547525</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B5">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -561,15 +561,15 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>0.7454759069397077</v>
+        <v>0.3647933250547525</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B6">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -584,15 +584,15 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>0.7454759069397077</v>
+        <v>0.3647933250547525</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -601,21 +601,21 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7">
-        <v>0.46997642889429</v>
+        <v>0.3647933250547525</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -630,7 +630,7 @@
         <v>23</v>
       </c>
       <c r="G8">
-        <v>0.46997642889429</v>
+        <v>0.2538352261379218</v>
       </c>
     </row>
   </sheetData>
